--- a/LMS/media/III/CSE/PFSD/A/attendance/attendance_X0j9sGQ.xlsx
+++ b/LMS/media/III/CSE/PFSD/A/attendance/attendance_X0j9sGQ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>2021-04-14/13:55/H3</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04-14/19:02/H4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04-16/21:31/H6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -474,6 +484,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -494,6 +514,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -514,6 +544,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +572,16 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
